--- a/src/Data/ClusteringQuality/CluStream/Clustream-KDD98-Normalized.xlsx
+++ b/src/Data/ClusteringQuality/CluStream/Clustream-KDD98-Normalized.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Documents/ISCAS/StreamingML/document/clustering/streamclustering/TestResult/pic/0509CMMNormalied/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Repositories/PythonGraph/src/Data/ClusteringQuality/CluStream/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,15 +32,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>ordered-CluStream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unordered-CluStream</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MOA=1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistStream-CluStream</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,25 +411,26 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>

--- a/src/Data/ClusteringQuality/CluStream/Clustream-KDD98-Normalized.xlsx
+++ b/src/Data/ClusteringQuality/CluStream/Clustream-KDD98-Normalized.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Repositories/PythonGraph/src/Data/ClusteringQuality/CluStream/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33300" yWindow="2640" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,16 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>unordered-CluStream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOA=1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DistStream-CluStream</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unordered-CluStream</t>
   </si>
 </sst>
 </file>
@@ -52,14 +46,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -96,7 +90,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -154,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -206,7 +200,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -400,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,31 +405,31 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -449,7 +443,7 @@
         <v>0.97966937099999996</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -463,7 +457,7 @@
         <v>0.98624630700000004</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>30</v>
       </c>
@@ -477,7 +471,7 @@
         <v>1.0023142899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>40</v>
       </c>
@@ -491,7 +485,7 @@
         <v>0.97567998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>50</v>
       </c>
@@ -505,7 +499,7 @@
         <v>1.0095753350000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>60</v>
       </c>
@@ -519,7 +513,7 @@
         <v>0.96297429400000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>70</v>
       </c>
@@ -533,7 +527,7 @@
         <v>0.94688016500000005</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>80</v>
       </c>
@@ -547,7 +541,7 @@
         <v>0.96919676099999996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>90</v>
       </c>
@@ -561,295 +555,295 @@
         <v>0.97465742099999997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -858,5 +852,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/Data/ClusteringQuality/CluStream/Clustream-KDD98-Normalized.xlsx
+++ b/src/Data/ClusteringQuality/CluStream/Clustream-KDD98-Normalized.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Repositories/PythonGraph/src/Data/ClusteringQuality/CluStream/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,15 +32,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>MOA=1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DistStream-CluStream</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Unordered-CluStream</t>
+  </si>
+  <si>
+    <t>MOA-CluStream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -46,14 +51,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -90,7 +95,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,31 +410,31 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -443,7 +448,7 @@
         <v>0.97966937099999996</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -457,7 +462,7 @@
         <v>0.98624630700000004</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>30</v>
       </c>
@@ -471,7 +476,7 @@
         <v>1.0023142899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>40</v>
       </c>
@@ -485,7 +490,7 @@
         <v>0.97567998</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>50</v>
       </c>
@@ -499,7 +504,7 @@
         <v>1.0095753350000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>60</v>
       </c>
@@ -513,7 +518,7 @@
         <v>0.96297429400000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>70</v>
       </c>
@@ -527,7 +532,7 @@
         <v>0.94688016500000005</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>80</v>
       </c>
@@ -541,7 +546,7 @@
         <v>0.96919676099999996</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>90</v>
       </c>
@@ -555,295 +560,295 @@
         <v>0.97465742099999997</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -852,10 +857,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>